--- a/需求分析/数据结构.xlsx
+++ b/需求分析/数据结构.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gmg\Mange\SRG-ERP\需求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678934DE-2233-4CC5-A7D0-9809ECA69682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B14DD-9A83-4581-B530-1D2A487B5A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="收购流程数据项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="216">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,14 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QualityCheckList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeighingList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检斤单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,14 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoistureContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ImperfectRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,22 +195,693 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杂质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>impurity</t>
-  </si>
-  <si>
-    <t>质检内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QualityId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>质检编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulkDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霉变粒含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂质含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水分含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MildewRate</t>
+  </si>
+  <si>
+    <t>impurityRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColorAndIustre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoughnessRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出糙率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadRiceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整精米率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄米粒含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowRiceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷外糙米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrownriceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡混率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MixingRiceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗脂肪含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrudeFatRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损伤利率-合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损伤利率-热损伤粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageThermal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tannin</t>
+  </si>
+  <si>
+    <t>单宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带壳粒</t>
+  </si>
+  <si>
+    <t>Capsomere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityId</t>
+  </si>
+  <si>
+    <t>质检内容(Quality)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检单内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJ_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJ_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：毛检，2：皮检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightDeduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保管员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storekeeper</t>
+  </si>
+  <si>
+    <t>结算单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：结算中、已结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票（已打印、未打印）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣整晒费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他扣费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DryingCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号：BM_递增序列（6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent_No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GW_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位编号：GW_递增序列（6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GW_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级岗位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GW_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位类别：临时、正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号：YG_递增序列（6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参保时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户口所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Political</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoeSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsureTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisteredPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LivePlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业人员编号：WP_递增序列（6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthCertificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工种信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工种编号：YG_递增序列（6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工种名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作范围（出库装车、入库卸车、烘干、驾驶、保管员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工种编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettlementType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算方式：按月、按量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额：￥500/吨   或   ￥6000/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmergencyTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系（子女、妻子。。。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZ_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组编号：YG_递增序列（6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZ_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZYD_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业单编号：WP_递增序列（6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZYD_State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态（作业中、作业完成）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,10 +963,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,11 +974,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,30 +1283,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -655,13 +1315,13 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -670,516 +1330,3211 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" t="s">
+        <v>109</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" t="s">
+        <v>109</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>202</v>
+      </c>
+      <c r="B136" t="s">
+        <v>109</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>209</v>
+      </c>
+      <c r="B139" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+    </row>
+    <row r="201" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+    </row>
+    <row r="205" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+    </row>
+    <row r="211" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+    </row>
+    <row r="212" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+    </row>
+    <row r="214" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+    </row>
+    <row r="216" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+    </row>
+    <row r="218" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+    </row>
+    <row r="224" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+    </row>
+    <row r="227" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+    </row>
+    <row r="228" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+    </row>
+    <row r="229" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+    </row>
+    <row r="230" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+    </row>
+    <row r="231" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+    </row>
+    <row r="232" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+    </row>
+    <row r="233" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+    </row>
+    <row r="234" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+    </row>
+    <row r="235" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+    </row>
+    <row r="238" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+    </row>
+    <row r="239" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+    </row>
+    <row r="240" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+    </row>
+    <row r="241" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+    </row>
+    <row r="242" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+    </row>
+    <row r="243" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+    </row>
+    <row r="244" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+    </row>
+    <row r="245" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+    </row>
+    <row r="246" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+    </row>
+    <row r="247" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+    </row>
+    <row r="248" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+    </row>
+    <row r="249" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+    </row>
+    <row r="250" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+    </row>
+    <row r="251" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+    </row>
+    <row r="252" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" s="7"/>
+    </row>
+    <row r="253" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+    </row>
+    <row r="254" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+    </row>
+    <row r="259" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7"/>
+    </row>
+    <row r="260" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="7"/>
+    </row>
+    <row r="261" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="7"/>
+    </row>
+    <row r="262" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
+    </row>
+    <row r="263" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="7"/>
+    </row>
+    <row r="265" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="7"/>
+    </row>
+    <row r="266" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="7"/>
+    </row>
+    <row r="267" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="7"/>
+    </row>
+    <row r="268" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="7"/>
+    </row>
+    <row r="269" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="7"/>
+    </row>
+    <row r="270" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="7"/>
+    </row>
+    <row r="271" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
+    </row>
+    <row r="272" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
+    </row>
+    <row r="273" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="7"/>
+    </row>
+    <row r="274" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" s="7"/>
+    </row>
+    <row r="275" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
+    </row>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="7"/>
+    </row>
+    <row r="277" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="7"/>
+    </row>
+    <row r="278" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="7"/>
+    </row>
+    <row r="279" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" s="7"/>
+    </row>
+    <row r="280" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="G280" s="7"/>
+    </row>
+    <row r="281" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="G281" s="7"/>
+    </row>
+    <row r="282" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" s="7"/>
+    </row>
+    <row r="283" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" s="7"/>
+    </row>
+    <row r="284" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="7"/>
+    </row>
+    <row r="285" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" s="7"/>
+    </row>
+    <row r="286" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" s="7"/>
+    </row>
+    <row r="287" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" s="7"/>
+    </row>
+    <row r="288" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="7"/>
+    </row>
+    <row r="289" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="7"/>
+    </row>
+    <row r="290" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="287">
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="C286:G286"/>
+    <mergeCell ref="C287:G287"/>
+    <mergeCell ref="C288:G288"/>
+    <mergeCell ref="C289:G289"/>
+    <mergeCell ref="C290:G290"/>
+    <mergeCell ref="C281:G281"/>
+    <mergeCell ref="C282:G282"/>
+    <mergeCell ref="C283:G283"/>
+    <mergeCell ref="C284:G284"/>
+    <mergeCell ref="C285:G285"/>
+    <mergeCell ref="C276:G276"/>
+    <mergeCell ref="C277:G277"/>
+    <mergeCell ref="C278:G278"/>
+    <mergeCell ref="C279:G279"/>
+    <mergeCell ref="C280:G280"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="C272:G272"/>
+    <mergeCell ref="C273:G273"/>
+    <mergeCell ref="C274:G274"/>
+    <mergeCell ref="C275:G275"/>
+    <mergeCell ref="C266:G266"/>
+    <mergeCell ref="C267:G267"/>
+    <mergeCell ref="C268:G268"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="C270:G270"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="C264:G264"/>
+    <mergeCell ref="C265:G265"/>
+    <mergeCell ref="C256:G256"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:G259"/>
+    <mergeCell ref="C260:G260"/>
+    <mergeCell ref="C251:G251"/>
+    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="C246:G246"/>
+    <mergeCell ref="C247:G247"/>
+    <mergeCell ref="C248:G248"/>
+    <mergeCell ref="C249:G249"/>
+    <mergeCell ref="C250:G250"/>
+    <mergeCell ref="C241:G241"/>
+    <mergeCell ref="C242:G242"/>
+    <mergeCell ref="C243:G243"/>
+    <mergeCell ref="C244:G244"/>
+    <mergeCell ref="C245:G245"/>
+    <mergeCell ref="C236:G236"/>
+    <mergeCell ref="C237:G237"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="C239:G239"/>
+    <mergeCell ref="C240:G240"/>
+    <mergeCell ref="C231:G231"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="C235:G235"/>
+    <mergeCell ref="C226:G226"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="C228:G228"/>
+    <mergeCell ref="C229:G229"/>
+    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="C221:G221"/>
+    <mergeCell ref="C222:G222"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="C216:G216"/>
+    <mergeCell ref="C217:G217"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="C220:G220"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="C213:G213"/>
+    <mergeCell ref="C214:G214"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="C206:G206"/>
+    <mergeCell ref="C207:G207"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="C204:G204"/>
+    <mergeCell ref="C205:G205"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:G197"/>
+    <mergeCell ref="C198:G198"/>
+    <mergeCell ref="C199:G199"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C191:G191"/>
+    <mergeCell ref="C192:G192"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="C194:G194"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="C187:G187"/>
+    <mergeCell ref="C188:G188"/>
+    <mergeCell ref="C189:G189"/>
+    <mergeCell ref="C190:G190"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="C185:G185"/>
+    <mergeCell ref="C176:G176"/>
+    <mergeCell ref="C177:G177"/>
+    <mergeCell ref="C178:G178"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="C180:G180"/>
+    <mergeCell ref="C171:G171"/>
+    <mergeCell ref="C172:G172"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="C174:G174"/>
+    <mergeCell ref="C175:G175"/>
+    <mergeCell ref="C166:G166"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="C168:G168"/>
+    <mergeCell ref="C169:G169"/>
+    <mergeCell ref="C170:G170"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="C159:G159"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -1188,14 +4543,43 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求分析/数据结构.xlsx
+++ b/需求分析/数据结构.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gmg\Mange\SRG-ERP\需求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B14DD-9A83-4581-B530-1D2A487B5A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB89B6F7-0EDC-4D70-9E00-81B1DA39CF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="212">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QualityId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质检编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BulkDensity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,17 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QualityId</t>
-  </si>
-  <si>
-    <t>质检内容(Quality)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质检单内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JJ_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,6 +863,10 @@
   </si>
   <si>
     <t>状态（作业中、作业完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检斤单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,11 +959,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1300,13 +1285,13 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1315,13 +1300,13 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1330,28 +1315,28 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1360,13 +1345,13 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1375,13 +1360,13 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1390,13 +1375,13 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1405,13 +1390,13 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1420,13 +1405,13 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1435,13 +1420,13 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1450,13 +1435,13 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1465,28 +1450,28 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1495,13 +1480,13 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1510,13 +1495,13 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1525,13 +1510,13 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1540,13 +1525,13 @@
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1566,13 +1551,13 @@
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1581,13 +1566,13 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1596,64 +1581,83 @@
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1662,28 +1666,28 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1692,28 +1696,28 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1722,13 +1726,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1737,13 +1741,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1752,13 +1756,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1767,133 +1771,121 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1902,106 +1894,106 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2010,76 +2002,88 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1</v>
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2088,103 +2092,91 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="C59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="C62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2193,59 +2185,52 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2261,124 +2246,131 @@
       <c r="B71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -2387,13 +2379,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -2401,47 +2393,59 @@
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C82" s="7"/>
+      <c r="A82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -2450,13 +2454,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -2465,13 +2469,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -2480,13 +2484,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -2495,13 +2499,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -2510,13 +2514,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -2525,13 +2529,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -2540,13 +2544,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -2555,13 +2559,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -2570,13 +2574,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -2585,13 +2589,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -2600,13 +2604,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -2615,13 +2619,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -2629,59 +2633,47 @@
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
+      <c r="A100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -2690,13 +2682,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -2705,13 +2697,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -2727,7 +2719,7 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2743,23 +2735,23 @@
       <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -2768,13 +2760,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -2782,62 +2774,62 @@
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>180</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="A112" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -2846,13 +2838,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -2860,47 +2852,59 @@
       <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C115" s="7"/>
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>165</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
+      <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="A117" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -2909,13 +2913,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -2924,13 +2928,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -2939,13 +2943,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -2954,13 +2958,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -2969,13 +2973,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -2984,13 +2988,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -2999,13 +3003,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -3013,59 +3017,47 @@
       <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>176</v>
-      </c>
-      <c r="B126" t="s">
-        <v>109</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>183</v>
-      </c>
-      <c r="B127" t="s">
-        <v>109</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>185</v>
-      </c>
-      <c r="B128" t="s">
-        <v>186</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
+      <c r="A128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -3074,13 +3066,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -3089,13 +3081,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -3103,47 +3095,59 @@
       <c r="G131" s="7"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C132" s="7"/>
+      <c r="A132" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" t="s">
+        <v>200</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
+      <c r="A134" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -3152,13 +3156,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -3166,90 +3170,42 @@
       <c r="G136" s="7"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>204</v>
-      </c>
-      <c r="B137" t="s">
-        <v>205</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>206</v>
-      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>207</v>
-      </c>
-      <c r="B138" t="s">
-        <v>205</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>209</v>
-      </c>
-      <c r="B139" t="s">
-        <v>186</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>195</v>
-      </c>
-      <c r="B140" t="s">
-        <v>109</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>212</v>
-      </c>
-      <c r="B141" t="s">
-        <v>146</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>213</v>
-      </c>
+      <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>214</v>
-      </c>
-      <c r="B142" t="s">
-        <v>109</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
@@ -4249,285 +4205,262 @@
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C285" s="7"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
-    </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C286" s="7"/>
-      <c r="D286" s="7"/>
-      <c r="E286" s="7"/>
-      <c r="F286" s="7"/>
-      <c r="G286" s="7"/>
-    </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C287" s="7"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
-    </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C288" s="7"/>
-      <c r="D288" s="7"/>
-      <c r="E288" s="7"/>
-      <c r="F288" s="7"/>
-      <c r="G288" s="7"/>
-    </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C289" s="7"/>
-      <c r="D289" s="7"/>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7"/>
-      <c r="G289" s="7"/>
-    </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C290" s="7"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7"/>
-      <c r="G290" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="287">
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="C286:G286"/>
-    <mergeCell ref="C287:G287"/>
-    <mergeCell ref="C288:G288"/>
-    <mergeCell ref="C289:G289"/>
-    <mergeCell ref="C290:G290"/>
+  <mergeCells count="282">
+    <mergeCell ref="C270:G270"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="C272:G272"/>
+    <mergeCell ref="C273:G273"/>
+    <mergeCell ref="C274:G274"/>
+    <mergeCell ref="C265:G265"/>
+    <mergeCell ref="C266:G266"/>
+    <mergeCell ref="C267:G267"/>
+    <mergeCell ref="C268:G268"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="C280:G280"/>
     <mergeCell ref="C281:G281"/>
     <mergeCell ref="C282:G282"/>
     <mergeCell ref="C283:G283"/>
     <mergeCell ref="C284:G284"/>
-    <mergeCell ref="C285:G285"/>
+    <mergeCell ref="C275:G275"/>
     <mergeCell ref="C276:G276"/>
     <mergeCell ref="C277:G277"/>
     <mergeCell ref="C278:G278"/>
     <mergeCell ref="C279:G279"/>
-    <mergeCell ref="C280:G280"/>
-    <mergeCell ref="C271:G271"/>
-    <mergeCell ref="C272:G272"/>
-    <mergeCell ref="C273:G273"/>
-    <mergeCell ref="C274:G274"/>
-    <mergeCell ref="C275:G275"/>
-    <mergeCell ref="C266:G266"/>
-    <mergeCell ref="C267:G267"/>
-    <mergeCell ref="C268:G268"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="C270:G270"/>
     <mergeCell ref="C261:G261"/>
     <mergeCell ref="C262:G262"/>
     <mergeCell ref="C263:G263"/>
     <mergeCell ref="C264:G264"/>
-    <mergeCell ref="C265:G265"/>
+    <mergeCell ref="C255:G255"/>
     <mergeCell ref="C256:G256"/>
     <mergeCell ref="C257:G257"/>
     <mergeCell ref="C258:G258"/>
     <mergeCell ref="C259:G259"/>
     <mergeCell ref="C260:G260"/>
+    <mergeCell ref="C250:G250"/>
     <mergeCell ref="C251:G251"/>
     <mergeCell ref="C252:G252"/>
     <mergeCell ref="C253:G253"/>
     <mergeCell ref="C254:G254"/>
-    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="C245:G245"/>
     <mergeCell ref="C246:G246"/>
     <mergeCell ref="C247:G247"/>
     <mergeCell ref="C248:G248"/>
     <mergeCell ref="C249:G249"/>
-    <mergeCell ref="C250:G250"/>
+    <mergeCell ref="C240:G240"/>
     <mergeCell ref="C241:G241"/>
     <mergeCell ref="C242:G242"/>
     <mergeCell ref="C243:G243"/>
     <mergeCell ref="C244:G244"/>
-    <mergeCell ref="C245:G245"/>
+    <mergeCell ref="C235:G235"/>
     <mergeCell ref="C236:G236"/>
     <mergeCell ref="C237:G237"/>
     <mergeCell ref="C238:G238"/>
     <mergeCell ref="C239:G239"/>
-    <mergeCell ref="C240:G240"/>
+    <mergeCell ref="C230:G230"/>
     <mergeCell ref="C231:G231"/>
     <mergeCell ref="C232:G232"/>
     <mergeCell ref="C233:G233"/>
     <mergeCell ref="C234:G234"/>
-    <mergeCell ref="C235:G235"/>
+    <mergeCell ref="C225:G225"/>
     <mergeCell ref="C226:G226"/>
     <mergeCell ref="C227:G227"/>
     <mergeCell ref="C228:G228"/>
     <mergeCell ref="C229:G229"/>
-    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="C220:G220"/>
     <mergeCell ref="C221:G221"/>
     <mergeCell ref="C222:G222"/>
     <mergeCell ref="C223:G223"/>
     <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="C215:G215"/>
     <mergeCell ref="C216:G216"/>
     <mergeCell ref="C217:G217"/>
     <mergeCell ref="C218:G218"/>
     <mergeCell ref="C219:G219"/>
-    <mergeCell ref="C220:G220"/>
+    <mergeCell ref="C210:G210"/>
     <mergeCell ref="C211:G211"/>
     <mergeCell ref="C212:G212"/>
     <mergeCell ref="C213:G213"/>
     <mergeCell ref="C214:G214"/>
-    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="C205:G205"/>
     <mergeCell ref="C206:G206"/>
     <mergeCell ref="C207:G207"/>
     <mergeCell ref="C208:G208"/>
     <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C200:G200"/>
     <mergeCell ref="C201:G201"/>
     <mergeCell ref="C202:G202"/>
     <mergeCell ref="C203:G203"/>
     <mergeCell ref="C204:G204"/>
-    <mergeCell ref="C205:G205"/>
+    <mergeCell ref="C195:G195"/>
     <mergeCell ref="C196:G196"/>
     <mergeCell ref="C197:G197"/>
     <mergeCell ref="C198:G198"/>
     <mergeCell ref="C199:G199"/>
-    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C190:G190"/>
     <mergeCell ref="C191:G191"/>
     <mergeCell ref="C192:G192"/>
     <mergeCell ref="C193:G193"/>
     <mergeCell ref="C194:G194"/>
-    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C185:G185"/>
     <mergeCell ref="C186:G186"/>
     <mergeCell ref="C187:G187"/>
     <mergeCell ref="C188:G188"/>
     <mergeCell ref="C189:G189"/>
-    <mergeCell ref="C190:G190"/>
+    <mergeCell ref="C180:G180"/>
     <mergeCell ref="C181:G181"/>
     <mergeCell ref="C182:G182"/>
     <mergeCell ref="C183:G183"/>
     <mergeCell ref="C184:G184"/>
-    <mergeCell ref="C185:G185"/>
+    <mergeCell ref="C175:G175"/>
     <mergeCell ref="C176:G176"/>
     <mergeCell ref="C177:G177"/>
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C179:G179"/>
-    <mergeCell ref="C180:G180"/>
+    <mergeCell ref="C170:G170"/>
     <mergeCell ref="C171:G171"/>
     <mergeCell ref="C172:G172"/>
     <mergeCell ref="C173:G173"/>
     <mergeCell ref="C174:G174"/>
-    <mergeCell ref="C175:G175"/>
+    <mergeCell ref="C165:G165"/>
     <mergeCell ref="C166:G166"/>
     <mergeCell ref="C167:G167"/>
     <mergeCell ref="C168:G168"/>
     <mergeCell ref="C169:G169"/>
-    <mergeCell ref="C170:G170"/>
+    <mergeCell ref="C160:G160"/>
     <mergeCell ref="C161:G161"/>
     <mergeCell ref="C162:G162"/>
     <mergeCell ref="C163:G163"/>
     <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C155:G155"/>
     <mergeCell ref="C156:G156"/>
     <mergeCell ref="C157:G157"/>
     <mergeCell ref="C158:G158"/>
     <mergeCell ref="C159:G159"/>
-    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="C150:G150"/>
     <mergeCell ref="C151:G151"/>
     <mergeCell ref="C152:G152"/>
     <mergeCell ref="C153:G153"/>
     <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C145:G145"/>
     <mergeCell ref="C146:G146"/>
     <mergeCell ref="C147:G147"/>
     <mergeCell ref="C148:G148"/>
     <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C140:G140"/>
     <mergeCell ref="C141:G141"/>
     <mergeCell ref="C142:G142"/>
     <mergeCell ref="C143:G143"/>
     <mergeCell ref="C144:G144"/>
-    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C135:G135"/>
     <mergeCell ref="C136:G136"/>
     <mergeCell ref="C137:G137"/>
     <mergeCell ref="C138:G138"/>
     <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C130:G130"/>
     <mergeCell ref="C131:G131"/>
     <mergeCell ref="C132:G132"/>
+    <mergeCell ref="C133:G133"/>
     <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="C125:G125"/>
     <mergeCell ref="C126:G126"/>
-    <mergeCell ref="C127:G127"/>
     <mergeCell ref="C128:G128"/>
     <mergeCell ref="C129:G129"/>
-    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="C120:G120"/>
     <mergeCell ref="C121:G121"/>
     <mergeCell ref="C122:G122"/>
     <mergeCell ref="C123:G123"/>
     <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C117:G117"/>
     <mergeCell ref="C118:G118"/>
     <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A105:G105"/>
     <mergeCell ref="C106:G106"/>
     <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="A110:G110"/>
     <mergeCell ref="C108:G108"/>
     <mergeCell ref="C109:G109"/>
+    <mergeCell ref="A99:G99"/>
     <mergeCell ref="C100:G100"/>
     <mergeCell ref="C101:G101"/>
     <mergeCell ref="C102:G102"/>
     <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C94:G94"/>
     <mergeCell ref="C95:G95"/>
     <mergeCell ref="C96:G96"/>
     <mergeCell ref="C97:G97"/>
     <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C89:G89"/>
     <mergeCell ref="C90:G90"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="C92:G92"/>
     <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C84:G84"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C86:G86"/>
     <mergeCell ref="C87:G87"/>
     <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C79:G79"/>
     <mergeCell ref="C80:G80"/>
     <mergeCell ref="C81:G81"/>
     <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="A77:G77"/>
     <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -4543,43 +4476,19 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C54:G54"/>
     <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
     <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C57:G57"/>
     <mergeCell ref="C58:G58"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A64:G64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
